--- a/fsu/TTRGASLGC/control.xlsx
+++ b/fsu/TTRGASLGC/control.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.11.240\Company\Ivanovo\Документация ЮНИТ М300\Разработка\Схемы ФБ ЮНИТ-М3\Трансформатор\ИЭУ Т 35 кВ Россети\01. Разработка ФБ\01. ЛО ГЗ Т откл\_xlsx\funcs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\www_xlsx\fsu\TTRGASLGC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -548,7 +548,7 @@
   <dimension ref="A1:AD4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="Y18" sqref="Y18"/>
+      <selection activeCell="Z10" sqref="Z10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
